--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="68">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widget Wildcard Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -1431,6 +1443,9 @@
       <c r="I3" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
@@ -1451,6 +1466,7 @@
         <v>48</v>
       </c>
       <c r="I4"/>
+      <c r="J4"/>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1696,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:10"/>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="7" spans="2:10"/>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="68">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1696,23 +1696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    <row r="6" spans="2:10"/>
     <row r="7" spans="2:10"/>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>
